--- a/Output_testing/R1_201907/Country/HKD/MN/GERMANY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GERMANY_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>9384.942676000001</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>14.06688924040715</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>10160.203154</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>13.74636892426684</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>13523.07763</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>17.7691325021499</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>8887.359786999999</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>21.62309068991284</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>22.36177779475497</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>6249.981777</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.367963603704601</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>6896.455745</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.330642655833802</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>7731.219441</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.15871286175012</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>4269.80894</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.38851449147713</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-7.198370570067835</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>5686.516633</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.523397787469234</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5966.455073</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.072387073405309</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>7819.32248</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.27447900734704</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3696.298419</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.993154080239831</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-17.5844740789449</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4366.565629</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.544951544689837</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>6223.699511</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>8.420429026392394</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>5136.995538</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.749939390658871</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2653.142356</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.455138438409326</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-15.23028989713748</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3338.295163</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.003699002850246</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3545.59438</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.797054514023073</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>3874.758537</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.09137784619739</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2163.972229</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.26497957543753</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-4.689182142320314</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3053.484982</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.576803132626893</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2886.859735</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.905811561877871</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3332.354549</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.378666687083344</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2064.429133</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.02278960631856</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>15.17685901660249</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3220.463202</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.827083204374913</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3445.620494</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.66179364384967</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2781.489105</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.654837294610083</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1430.744054</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.481023518249915</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-12.07577982175456</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3497.021822</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>5.241610986837402</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>3396.176978</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.594898444851478</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2952.660395</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.879753945670817</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1243.555884</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.025591660758398</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-22.1985653578431</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2200.39319</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.298122147110295</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6955.916162</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>9.411090341385343</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3380.039504</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.441324042674821</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1219.333373</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.966657898128854</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-57.17571614822488</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1297.655391</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.945027826764984</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1507.452989</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.039526632361151</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1898.690121</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.494851931170348</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1048.449986</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.550895842461278</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>7.40722457933165</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>24421.225856</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>36.60445152316445</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>22927.470879</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>31.01999718175307</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>23673.713653</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>31.10692449068727</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>12424.152254</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>30.22816419860633</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-10.44230819468563</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,451 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>69.220895</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>30.45608385847986</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>30.906021</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>15.56880292686042</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>37.762874</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>25.72391103035217</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>15.753353</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>19.7434397928691</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-30.15915048687775</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>10.335243</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>4.547341196697428</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>6.455255</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>3.251812743466083</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>11.695393</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>7.966852549332012</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>7.547183</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>9.458770660840596</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>11.90645754441342</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF PRECIOUS METALS; WASTE, SCRAP AND SWEEPINGS OF PRECIOUS METALS (OTHER THAN OF GOLD)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>9.880231999999999</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>4.347143652696721</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>37.736394</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>19.00958008655848</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>16.378263</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>11.15680390861429</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>6.476469</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.116860948388775</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-33.05542043340479</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>15.51076</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>6.82448568844357</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>13.937306</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>7.020870478453027</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>12.044529</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>8.204682524918432</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>5.485852</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.875335598370108</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-8.664213886677308</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>7.204388</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.169815199254879</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>9.206517</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.637751615317618</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>3.487341</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.375562029958296</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>5.108572</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>6.402496262829689</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>268.6476734788131</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>7.784781</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>3.425178812783347</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>4.763066</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>5.96947880241507</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.0675626177479588</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>1.928134</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.971290942388834</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>2.164284</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.474301163105719</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>4.490216</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>5.627520011325685</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>5.614736</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.470393808968026</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>4.83977</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.438017671098174</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>4.808361</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3.275435300973522</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>3.772071</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>4.727479710695719</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-3.698770727223988</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>12.637874</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>5.560461914525987</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>8.006014</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>4.033002313551962</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>7.767679</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>5.291310282907358</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>3.009515</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>3.771779773375004</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-25.05415149868537</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>2.801495</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.23261287865625</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>0.642834</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.3238254403789279</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.310159345252584</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>2.81072</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>3.522632997217356</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>86.137049</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>37.89892037174597</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>84.85426200000001</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>42.74504578192648</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>50.236631</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>34.22098186458562</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>20.573299</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>25.7842054416729</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-29.52195732695841</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1744,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>9382.809547000001</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>14.11176601683356</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>10160.137676</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>13.78329950447136</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>13523.077315</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>17.80347392173178</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>8887.138564999999</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>21.66461020679528</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>22.35873199511862</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>6242.777389</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.389150804719741</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>6887.249228</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.343280760427284</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>7727.7321</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.17375510852646</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>4264.700368</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.39626764517499</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-7.281476643628437</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>5686.183661</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.552032624218629</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5966.28544</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.093896143055249</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>7819.274508</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.29427300808419</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3696.159189</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.010307142876147</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-17.58669694879954</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4351.054869</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.543996009954649</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>6209.762205</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.424198082004564</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>5124.951009</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.747127855113094</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2647.656504</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.454321118222187</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-15.24291466480064</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3338.039129</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.020418128229421</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3543.518694</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.807157246940363</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3874.712247</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.10115684742569</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2163.901419</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.275047803709606</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-4.690357738237793</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3043.728485</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.577774277942645</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2880.685498</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.907954032051371</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3331.187531</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.38559278743254</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2063.8345</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.031109805120523</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>15.19577240301617</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3216.642051</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.837836658224945</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3442.179848</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.669680402590611</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2778.388817</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.657819274095507</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1428.73774</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.482903523833784</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-12.12087718469481</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3486.939654</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>5.244364842490025</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3384.802257</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.591841642249184</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2946.208274</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.878757841306434</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1242.123681</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.027985349916138</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-22.05379431541121</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2195.054994</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.30136749704294</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>6953.00803</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>9.432489518411169</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>3375.473991</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>4.443897034116188</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1216.688104</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.965979805942724</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-57.2430984152996</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1296.90955</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.950554790963285</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1501.972781</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.037584661572924</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1898.690121</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.499673651734444</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1048.449986</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.555857557736861</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>7.40722457933165</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>24249.125982</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>36.47073834938016</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>22783.790936</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>30.90861800622592</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>23557.824369</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>31.01447267043367</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>12362.066043</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>30.13561004067176</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-10.45480295658908</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2202,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>3264.908211</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>6.418193125936725</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4453.220974</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>8.254898972657568</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>4732.391352</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>8.699424958266251</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2488.120314</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>8.340281877366568</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-8.711353422382507</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4267.418932</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>8.38893992871723</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4089.200093</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>7.580116469355542</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>3591.876772</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>6.602848351531181</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1830.640505</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>6.136382449801695</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-11.09543242410381</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>4295.213709</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>8.443579212626442</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3638.391181</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.744455709141564</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3666.617326</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.740241857794659</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1788.066157</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.99367147997152</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-18.50510644859057</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2727.213111</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.361186076537057</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2752.736666</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.102725242881742</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3091.241864</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.682544959506361</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1574.300978</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.27712178645629</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-14.12024642801122</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2167.63663</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>4.261164363310993</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2453.594406</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.548207703965547</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2498.768885</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.593418165621762</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1333.470578</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.469848356253934</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-12.29333962262172</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1829.345352</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.596147580386204</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1755.359967</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.253896286044152</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1795.068913</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.299825847446116</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1322.503973</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.433087844142405</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>55.00690126157563</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1326.33804</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.607330173116585</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1376.960966</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.552461180342714</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1742.317739</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.202854814084831</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1264.136756</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.23743852628654</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>13.1928523223201</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1383.706068</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.720104885041908</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1621.351434</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.005485774226365</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1710.637126</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.144617213910683</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>865.5138899999999</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.901238244291767</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-27.99172808205338</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>776.870151</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.527180043253481</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>841.14376</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.559221247007745</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1188.637808</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.185040214158114</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>785.491706</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.633000584220763</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>8.457661967563768</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>747.956521</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.470341305586477</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>818.891765</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.517972907494045</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1192.579965</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.192286973025745</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>706.901696</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.369563630446084</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-3.004077400227911</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>28082.978327</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>55.2058333054869</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>30145.550661</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>55.88055850688301</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>29188.760737</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>53.6568966446543</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>15873.422065</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>53.20836522076243</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-7.159029559162344</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
